--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3434.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3434.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.095040966981379</v>
+        <v>1.442919373512268</v>
       </c>
       <c r="B1">
-        <v>2.55416858694307</v>
+        <v>3.316734552383423</v>
       </c>
       <c r="C1">
-        <v>4.129787655052892</v>
+        <v>4.297641277313232</v>
       </c>
       <c r="D1">
-        <v>3.815526702149459</v>
+        <v>1.994369268417358</v>
       </c>
       <c r="E1">
-        <v>1.280300391200823</v>
+        <v>1.157947421073914</v>
       </c>
     </row>
   </sheetData>
